--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H2">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I2">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J2">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N2">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O2">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P2">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q2">
-        <v>9.530522429038001</v>
+        <v>7.19310336019311</v>
       </c>
       <c r="R2">
-        <v>85.774701861342</v>
+        <v>64.73793024173798</v>
       </c>
       <c r="S2">
-        <v>0.01138303521296362</v>
+        <v>0.006486079376527488</v>
       </c>
       <c r="T2">
-        <v>0.01195775741089995</v>
+        <v>0.006767716444988682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H3">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I3">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J3">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P3">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q3">
-        <v>14.380463813258</v>
+        <v>13.47844324378955</v>
       </c>
       <c r="R3">
-        <v>129.424174319322</v>
+        <v>121.305989194106</v>
       </c>
       <c r="S3">
-        <v>0.01717569285250482</v>
+        <v>0.01215362109698542</v>
       </c>
       <c r="T3">
-        <v>0.01804288264526142</v>
+        <v>0.01268135287734726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H4">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I4">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J4">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N4">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O4">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P4">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q4">
-        <v>67.81132720574598</v>
+        <v>77.06196471800021</v>
       </c>
       <c r="R4">
-        <v>610.3019448517139</v>
+        <v>693.5576824620019</v>
       </c>
       <c r="S4">
-        <v>0.08099227835285824</v>
+        <v>0.06948739577943328</v>
       </c>
       <c r="T4">
-        <v>0.08508152690212169</v>
+        <v>0.07250466172797303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H5">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I5">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J5">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N5">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O5">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P5">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q5">
-        <v>9.658589781513001</v>
+        <v>8.390936449117333</v>
       </c>
       <c r="R5">
-        <v>57.951538689078</v>
+        <v>50.345618694704</v>
       </c>
       <c r="S5">
-        <v>0.01153599589205633</v>
+        <v>0.007566175144035693</v>
       </c>
       <c r="T5">
-        <v>0.008078960651505269</v>
+        <v>0.005263141257389241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H6">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I6">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J6">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N6">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O6">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P6">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q6">
-        <v>51.17793989984401</v>
+        <v>103.8782378272264</v>
       </c>
       <c r="R6">
-        <v>460.6014590985961</v>
+        <v>934.9041404450379</v>
       </c>
       <c r="S6">
-        <v>0.06112574587012047</v>
+        <v>0.09366784575484019</v>
       </c>
       <c r="T6">
-        <v>0.06421194584751887</v>
+        <v>0.09773506972112968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.54391</v>
       </c>
       <c r="I7">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J7">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N7">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O7">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P7">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q7">
-        <v>31.30270944159667</v>
+        <v>25.20662396065666</v>
       </c>
       <c r="R7">
-        <v>281.72438497437</v>
+        <v>226.85961564591</v>
       </c>
       <c r="S7">
-        <v>0.03738723102410558</v>
+        <v>0.02272901634194084</v>
       </c>
       <c r="T7">
-        <v>0.03927488850622041</v>
+        <v>0.02371595053746066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.54391</v>
       </c>
       <c r="I8">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J8">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P8">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q8">
         <v>47.23219358996333</v>
@@ -948,10 +948,10 @@
         <v>425.08974230967</v>
       </c>
       <c r="S8">
-        <v>0.05641303788152739</v>
+        <v>0.04258965030968086</v>
       </c>
       <c r="T8">
-        <v>0.05926129623415142</v>
+        <v>0.04443896845145602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>8.54391</v>
       </c>
       <c r="I9">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J9">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N9">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O9">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P9">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q9">
-        <v>222.7242303006433</v>
+        <v>270.0464415770433</v>
       </c>
       <c r="R9">
-        <v>2004.51807270579</v>
+        <v>2430.41797419339</v>
       </c>
       <c r="S9">
-        <v>0.2660166612239272</v>
+        <v>0.2435030567071502</v>
       </c>
       <c r="T9">
-        <v>0.279447673020516</v>
+        <v>0.2540763912396452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.54391</v>
       </c>
       <c r="I10">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J10">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N10">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O10">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P10">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q10">
-        <v>31.723342744055</v>
+        <v>29.40416245388001</v>
       </c>
       <c r="R10">
-        <v>190.34005646433</v>
+        <v>176.42497472328</v>
       </c>
       <c r="S10">
-        <v>0.03788962569651513</v>
+        <v>0.02651397069192884</v>
       </c>
       <c r="T10">
-        <v>0.02653509917710657</v>
+        <v>0.0184435028781884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>8.54391</v>
       </c>
       <c r="I11">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J11">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N11">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O11">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P11">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q11">
-        <v>168.09237840134</v>
+        <v>364.0180805821566</v>
       </c>
       <c r="R11">
-        <v>1512.83140561206</v>
+        <v>3276.16272523941</v>
       </c>
       <c r="S11">
-        <v>0.20076564287215</v>
+        <v>0.3282380423188666</v>
       </c>
       <c r="T11">
-        <v>0.2109021723111679</v>
+        <v>0.3424907201893646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H12">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I12">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J12">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N12">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O12">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P12">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q12">
-        <v>0.3339796869673333</v>
+        <v>3.268098003482</v>
       </c>
       <c r="R12">
-        <v>3.005817182706</v>
+        <v>19.608588020892</v>
       </c>
       <c r="S12">
-        <v>0.0003988976014138043</v>
+        <v>0.002946870356147112</v>
       </c>
       <c r="T12">
-        <v>0.0004190376872474125</v>
+        <v>0.002049885795181644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H13">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I13">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J13">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P13">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q13">
-        <v>0.5039369917606666</v>
+        <v>6.123764841034</v>
       </c>
       <c r="R13">
-        <v>4.535432925846</v>
+        <v>36.742589046204</v>
       </c>
       <c r="S13">
-        <v>0.0006018906691671932</v>
+        <v>0.005521848200033153</v>
       </c>
       <c r="T13">
-        <v>0.0006322797457034045</v>
+        <v>0.003841077760609915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H14">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I14">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J14">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N14">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O14">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P14">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q14">
-        <v>2.376323648744666</v>
+        <v>35.012155453378</v>
       </c>
       <c r="R14">
-        <v>21.386912838702</v>
+        <v>210.072932720268</v>
       </c>
       <c r="S14">
-        <v>0.002838225918092624</v>
+        <v>0.03157074325814119</v>
       </c>
       <c r="T14">
-        <v>0.002981526137003339</v>
+        <v>0.02196106727708369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H15">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I15">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J15">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N15">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O15">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P15">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q15">
-        <v>0.338467572559</v>
+        <v>3.812318728584001</v>
       </c>
       <c r="R15">
-        <v>2.030805435354</v>
+        <v>15.249274914336</v>
       </c>
       <c r="S15">
-        <v>0.0004042578280018078</v>
+        <v>0.00343759857797377</v>
       </c>
       <c r="T15">
-        <v>0.0002831123655079092</v>
+        <v>0.001594162312983062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H16">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I16">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J16">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N16">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O16">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P16">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q16">
-        <v>1.793437083292</v>
+        <v>47.195799177182</v>
       </c>
       <c r="R16">
-        <v>16.140933749628</v>
+        <v>283.174795063092</v>
       </c>
       <c r="S16">
-        <v>0.00214203970698889</v>
+        <v>0.04255683317382985</v>
       </c>
       <c r="T16">
-        <v>0.002250189927508769</v>
+        <v>0.02960315089158058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H17">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I17">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J17">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N17">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O17">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P17">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q17">
-        <v>4.321446109534667</v>
+        <v>2.318343475179333</v>
       </c>
       <c r="R17">
-        <v>25.92867665720799</v>
+        <v>20.865091276614</v>
       </c>
       <c r="S17">
-        <v>0.005161435126145864</v>
+        <v>0.002090469029721276</v>
       </c>
       <c r="T17">
-        <v>0.003614688465531049</v>
+        <v>0.00218124090207459</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H18">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I18">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J18">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.753537</v>
       </c>
       <c r="O18">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P18">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q18">
-        <v>6.520565883121333</v>
+        <v>4.344113991568666</v>
       </c>
       <c r="R18">
-        <v>39.123395298728</v>
+        <v>39.097025924118</v>
       </c>
       <c r="S18">
-        <v>0.007788012840709658</v>
+        <v>0.003917122660286866</v>
       </c>
       <c r="T18">
-        <v>0.005454149765850479</v>
+        <v>0.004087211072531483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H19">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I19">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J19">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N19">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O19">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P19">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q19">
-        <v>30.74784182268932</v>
+        <v>24.83713831740067</v>
       </c>
       <c r="R19">
-        <v>184.4870509361359</v>
+        <v>223.534244856606</v>
       </c>
       <c r="S19">
-        <v>0.0367245099936916</v>
+        <v>0.02239584815421423</v>
       </c>
       <c r="T19">
-        <v>0.02571913807538289</v>
+        <v>0.02336831559620719</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H20">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I20">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J20">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N20">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O20">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P20">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q20">
-        <v>4.379515975717999</v>
+        <v>2.704406122552</v>
       </c>
       <c r="R20">
-        <v>17.518063902872</v>
+        <v>16.226436735312</v>
       </c>
       <c r="S20">
-        <v>0.005230792429116263</v>
+        <v>0.002438584835901522</v>
       </c>
       <c r="T20">
-        <v>0.002442174136586491</v>
+        <v>0.001696315009254632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H21">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I21">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J21">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N21">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O21">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P21">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q21">
-        <v>23.205727799384</v>
+        <v>33.48004648627933</v>
       </c>
       <c r="R21">
-        <v>139.234366796304</v>
+        <v>301.320418376514</v>
       </c>
       <c r="S21">
-        <v>0.027716383718694</v>
+        <v>0.03018922823236174</v>
       </c>
       <c r="T21">
-        <v>0.01941051085321042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.620104</v>
-      </c>
-      <c r="H22">
-        <v>1.860312</v>
-      </c>
-      <c r="I22">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J22">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.99123566666667</v>
-      </c>
-      <c r="N22">
-        <v>32.973707</v>
-      </c>
-      <c r="O22">
-        <v>0.06247112414817082</v>
-      </c>
-      <c r="P22">
-        <v>0.06381790718517789</v>
-      </c>
-      <c r="Q22">
-        <v>6.815709201842666</v>
-      </c>
-      <c r="R22">
-        <v>61.34138281658399</v>
-      </c>
-      <c r="S22">
-        <v>0.00814052518354195</v>
-      </c>
-      <c r="T22">
-        <v>0.00855153511527906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.620104</v>
-      </c>
-      <c r="H23">
-        <v>1.860312</v>
-      </c>
-      <c r="I23">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J23">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.58451233333333</v>
-      </c>
-      <c r="N23">
-        <v>49.753537</v>
-      </c>
-      <c r="O23">
-        <v>0.09426175184784684</v>
-      </c>
-      <c r="P23">
-        <v>0.09629389277948987</v>
-      </c>
-      <c r="Q23">
-        <v>10.28412243594933</v>
-      </c>
-      <c r="R23">
-        <v>92.557101923544</v>
-      </c>
-      <c r="S23">
-        <v>0.01228311760393777</v>
-      </c>
-      <c r="T23">
-        <v>0.01290328438852313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.620104</v>
-      </c>
-      <c r="H24">
-        <v>1.860312</v>
-      </c>
-      <c r="I24">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J24">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>78.20455633333331</v>
-      </c>
-      <c r="N24">
-        <v>234.613669</v>
-      </c>
-      <c r="O24">
-        <v>0.4444929301687812</v>
-      </c>
-      <c r="P24">
-        <v>0.4540755260734272</v>
-      </c>
-      <c r="Q24">
-        <v>48.49495820052532</v>
-      </c>
-      <c r="R24">
-        <v>436.4546238047279</v>
-      </c>
-      <c r="S24">
-        <v>0.05792125468021157</v>
-      </c>
-      <c r="T24">
-        <v>0.06084566193840316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.620104</v>
-      </c>
-      <c r="H25">
-        <v>1.860312</v>
-      </c>
-      <c r="I25">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J25">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.1389315</v>
-      </c>
-      <c r="N25">
-        <v>22.277863</v>
-      </c>
-      <c r="O25">
-        <v>0.06331058615409581</v>
-      </c>
-      <c r="P25">
-        <v>0.04311697781563077</v>
-      </c>
-      <c r="Q25">
-        <v>6.907295978876</v>
-      </c>
-      <c r="R25">
-        <v>41.443775873256</v>
-      </c>
-      <c r="S25">
-        <v>0.008249914308406275</v>
-      </c>
-      <c r="T25">
-        <v>0.005777631484924522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.620104</v>
-      </c>
-      <c r="H26">
-        <v>1.860312</v>
-      </c>
-      <c r="I26">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J26">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>59.02182200000001</v>
-      </c>
-      <c r="N26">
-        <v>177.065466</v>
-      </c>
-      <c r="O26">
-        <v>0.3354636076811054</v>
-      </c>
-      <c r="P26">
-        <v>0.3426956961462742</v>
-      </c>
-      <c r="Q26">
-        <v>36.59966790948801</v>
-      </c>
-      <c r="R26">
-        <v>329.397011185392</v>
-      </c>
-      <c r="S26">
-        <v>0.04371379551315207</v>
-      </c>
-      <c r="T26">
-        <v>0.04592087720686821</v>
+        <v>0.03150009805755039</v>
       </c>
     </row>
   </sheetData>
